--- a/APM files/141463953/OLALA APARTMENTS EID's List.xlsx
+++ b/APM files/141463953/OLALA APARTMENTS EID's List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141463953/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3123559-43C7-5E46-B17D-880A4731957E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FC15F-BB75-4844-96D8-13FA83893427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="26860" xr2:uid="{194CF937-6106-4C1C-A135-BB52BF4ADD82}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
